--- a/OutPut/BHBUS.xlsx
+++ b/OutPut/BHBUS.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2171E193-0CFF-4249-9E2E-774E0CBFCAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{036818C1-D724-4F72-BE60-B785765F5A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoHanhSearch" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="BaoHanhGetDs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>Dự án</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Tham số</t>
+  </si>
+  <si>
+    <t>Số cases</t>
   </si>
   <si>
     <t>Quản lí bán máy tính</t>
@@ -124,6 +127,72 @@
   </si>
   <si>
     <t>HDS006</t>
+  </si>
+  <si>
+    <t>Sô cases</t>
+  </si>
+  <si>
+    <t>BaoHanhBUS.GetData</t>
+  </si>
+  <si>
+    <t>Không có</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>HDS1001</t>
+  </si>
+  <si>
+    <t>!null</t>
+  </si>
+  <si>
+    <t>HDS1002</t>
+  </si>
+  <si>
+    <t>HDS1003</t>
+  </si>
+  <si>
+    <t>HDS1004</t>
+  </si>
+  <si>
+    <t>HDS1005</t>
+  </si>
+  <si>
+    <t>HDS1006</t>
+  </si>
+  <si>
+    <t>HDS1007</t>
+  </si>
+  <si>
+    <t>HDS1008</t>
+  </si>
+  <si>
+    <t>HDS1009</t>
+  </si>
+  <si>
+    <t>HDS1010</t>
+  </si>
+  <si>
+    <t>HDS1011</t>
+  </si>
+  <si>
+    <t>HDS1012</t>
+  </si>
+  <si>
+    <t>HDS1013</t>
+  </si>
+  <si>
+    <t>HDS1014</t>
+  </si>
+  <si>
+    <t>HDS1015</t>
+  </si>
+  <si>
+    <t>HDS1016</t>
+  </si>
+  <si>
+    <t>HDS1017</t>
   </si>
 </sst>
 </file>
@@ -145,7 +214,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,19 +246,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,7 +592,7 @@
     <col min="7" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,84 +605,91 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <f>COUNTA(A6:A11)</f>
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4">
         <v>43899</v>
@@ -614,25 +698,25 @@
         <v>44330</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H6" t="str">
         <f>IF(F6=G6,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>43899</v>
@@ -641,25 +725,23 @@
         <v>44330</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" t="str">
         <f t="shared" ref="H7:H11" si="0">IF(F7=G7,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4">
         <v>43899</v>
@@ -668,25 +750,23 @@
         <v>44330</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>43899</v>
@@ -695,25 +775,23 @@
         <v>44330</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>43899</v>
@@ -722,25 +800,23 @@
         <v>44330</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4">
         <v>43899</v>
@@ -749,11 +825,9 @@
         <v>44330</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
@@ -769,12 +843,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC1F49C-7BF0-4C0A-866A-4EC83FB5ACA7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1">
+        <f>COUNTA(A6:A22)</f>
+        <v>17</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(C6=D6,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
